--- a/movies_sorted.xlsx
+++ b/movies_sorted.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,71 +478,197 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Silence of the Lambs
+          <t xml:space="preserve">Amsterdam
 </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>'1991</t>
+          <t>'2022</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1h 58m</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+          <t>2h 14m</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>90000</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Christian Bale, Margot Robbie, John David Washington</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>David O. Russell</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>In the 1930s, three friends witness a murder, are framed for it, and uncover one of the most outrageous plots in American history.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">(500) Days of Summer
+          <t xml:space="preserve">Alice in Wonderland
 </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>'2009</t>
+          <t>'2010</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1h 35m</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+          <t>1h 48m</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>436000</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Mia Wasikowska, Johnny Depp, Helena Bonham Carter</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Tim Burton</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Nineteen-year-old Alice returns to the magical world from her childhood adventure, where she reunites with her old friends and learns of her true destiny: to end the Red Queen's reign of terror.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alice in Wonderland
+          <t xml:space="preserve">(500) Days of Summer
 </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>'2010</t>
+          <t>'2009</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1h 48m</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+          <t>1h 35m</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="E4" t="n">
+        <v>549000</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Zooey Deschanel, Joseph Gordon-Levitt, Geoffrey Arend</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Marc Webb</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>After being dumped by the girl he believes to be his soulmate, hopeless romantic Tom Hansen reflects on their relationship to try and figure out where things went wrong and how he can win her back.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RocknRolla
+</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>'2008</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1h 54m</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>263000</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Gerard Butler, Tom Wilkinson, Idris Elba</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Guy Ritchie</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>When a Russian mobster orchestrates a crooked land deal, millions of dollars are up for grabs, drawing in the entire London underworld into a feeding frenzy at a time when the old criminal regime is losing turf to a wealthy foreign mob.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Silence of the Lambs
+</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>'1991</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1h 58m</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Jodie Foster, Anthony Hopkins, Scott Glenn</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Jonathan Demme</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>A young F.B.I. cadet must receive the help of an incarcerated and manipulative cannibal killer to help catch another serial killer, a madman who skins his victims.</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
